--- a/rolx_fix_client/initiator/regression/report/rolx_report.xlsx
+++ b/rolx_fix_client/initiator/regression/report/rolx_report.xlsx
@@ -630,16 +630,8 @@
         </is>
       </c>
       <c r="O2" s="4" t="inlineStr"/>
-      <c r="P2" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="Q2" s="4" t="inlineStr">
-        <is>
-          <t>ps: 若列表存在failed数据，请查看report.log文件</t>
-        </is>
-      </c>
+      <c r="P2" s="4" t="n"/>
+      <c r="Q2" s="4" t="n"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
@@ -711,16 +703,8 @@
         </is>
       </c>
       <c r="O3" s="4" t="inlineStr"/>
-      <c r="P3" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="Q3" s="4" t="inlineStr">
-        <is>
-          <t>Market Price is OK</t>
-        </is>
-      </c>
+      <c r="P3" s="4" t="n"/>
+      <c r="Q3" s="4" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
@@ -794,16 +778,8 @@
       <c r="O4" s="4" t="n">
         <v>1230</v>
       </c>
-      <c r="P4" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
-      <c r="Q4" s="4" t="inlineStr">
-        <is>
-          <t>FixMsg is OK</t>
-        </is>
-      </c>
+      <c r="P4" s="4" t="n"/>
+      <c r="Q4" s="4" t="n"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
@@ -877,11 +853,7 @@
       <c r="O5" s="4" t="n">
         <v>1230</v>
       </c>
-      <c r="P5" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P5" s="4" t="n"/>
       <c r="Q5" s="4" t="n"/>
     </row>
     <row r="6">
@@ -954,11 +926,7 @@
         </is>
       </c>
       <c r="O6" s="4" t="inlineStr"/>
-      <c r="P6" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P6" s="4" t="n"/>
       <c r="Q6" s="4" t="n"/>
     </row>
     <row r="7">
@@ -1031,11 +999,7 @@
         </is>
       </c>
       <c r="O7" s="4" t="inlineStr"/>
-      <c r="P7" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P7" s="4" t="n"/>
       <c r="Q7" s="4" t="n"/>
     </row>
     <row r="8">
@@ -1110,11 +1074,7 @@
       <c r="O8" s="4" t="n">
         <v>3470</v>
       </c>
-      <c r="P8" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P8" s="4" t="n"/>
       <c r="Q8" s="4" t="n"/>
     </row>
     <row r="9">
@@ -1189,11 +1149,7 @@
       <c r="O9" s="4" t="n">
         <v>3470</v>
       </c>
-      <c r="P9" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P9" s="4" t="n"/>
       <c r="Q9" s="4" t="n"/>
     </row>
     <row r="10">
@@ -1266,11 +1222,7 @@
         </is>
       </c>
       <c r="O10" s="4" t="inlineStr"/>
-      <c r="P10" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P10" s="4" t="n"/>
       <c r="Q10" s="4" t="n"/>
     </row>
     <row r="11">
@@ -1343,11 +1295,7 @@
         </is>
       </c>
       <c r="O11" s="4" t="inlineStr"/>
-      <c r="P11" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P11" s="4" t="n"/>
       <c r="Q11" s="4" t="n"/>
     </row>
     <row r="12">
@@ -1422,11 +1370,7 @@
       <c r="O12" s="4" t="n">
         <v>1037</v>
       </c>
-      <c r="P12" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P12" s="4" t="n"/>
       <c r="Q12" s="4" t="n"/>
     </row>
     <row r="13">
@@ -1499,11 +1443,7 @@
         </is>
       </c>
       <c r="O13" s="4" t="inlineStr"/>
-      <c r="P13" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P13" s="4" t="n"/>
       <c r="Q13" s="4" t="n"/>
     </row>
     <row r="14">
@@ -1576,11 +1516,7 @@
         </is>
       </c>
       <c r="O14" s="4" t="inlineStr"/>
-      <c r="P14" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P14" s="4" t="n"/>
       <c r="Q14" s="4" t="n"/>
     </row>
     <row r="15">
@@ -1655,11 +1591,7 @@
       <c r="O15" s="4" t="n">
         <v>5222</v>
       </c>
-      <c r="P15" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P15" s="4" t="n"/>
       <c r="Q15" s="4" t="n"/>
     </row>
     <row r="16">
@@ -1732,11 +1664,7 @@
         </is>
       </c>
       <c r="O16" s="4" t="inlineStr"/>
-      <c r="P16" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P16" s="4" t="n"/>
       <c r="Q16" s="4" t="n"/>
     </row>
     <row r="17">
@@ -1809,11 +1737,7 @@
         </is>
       </c>
       <c r="O17" s="4" t="inlineStr"/>
-      <c r="P17" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P17" s="4" t="n"/>
       <c r="Q17" s="4" t="n"/>
     </row>
     <row r="18">
@@ -1886,11 +1810,7 @@
         </is>
       </c>
       <c r="O18" s="4" t="inlineStr"/>
-      <c r="P18" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P18" s="4" t="n"/>
       <c r="Q18" s="4" t="n"/>
     </row>
     <row r="19">
@@ -1963,11 +1883,7 @@
         </is>
       </c>
       <c r="O19" s="4" t="inlineStr"/>
-      <c r="P19" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P19" s="4" t="n"/>
       <c r="Q19" s="4" t="n"/>
     </row>
     <row r="20">
@@ -2042,11 +1958,7 @@
       <c r="O20" s="4" t="n">
         <v>973</v>
       </c>
-      <c r="P20" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P20" s="4" t="n"/>
       <c r="Q20" s="4" t="n"/>
     </row>
     <row r="21">
@@ -2121,11 +2033,7 @@
       <c r="O21" s="4" t="n">
         <v>973</v>
       </c>
-      <c r="P21" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P21" s="4" t="n"/>
       <c r="Q21" s="4" t="n"/>
     </row>
     <row r="22">
@@ -2200,11 +2108,7 @@
       <c r="O22" s="4" t="n">
         <v>973</v>
       </c>
-      <c r="P22" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P22" s="4" t="n"/>
       <c r="Q22" s="4" t="n"/>
     </row>
     <row r="23">
@@ -2279,11 +2183,7 @@
       <c r="O23" s="4" t="n">
         <v>973</v>
       </c>
-      <c r="P23" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P23" s="4" t="n"/>
       <c r="Q23" s="4" t="n"/>
     </row>
     <row r="24">
@@ -2356,11 +2256,7 @@
         </is>
       </c>
       <c r="O24" s="4" t="inlineStr"/>
-      <c r="P24" s="4" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
+      <c r="P24" s="4" t="n"/>
       <c r="Q24" s="4" t="n"/>
     </row>
     <row r="25">
@@ -2433,11 +2329,7 @@
         </is>
       </c>
       <c r="O25" s="4" t="inlineStr"/>
-      <c r="P25" s="4" t="inlineStr">
-        <is>
-          <t>failed</t>
-        </is>
-      </c>
+      <c r="P25" s="4" t="n"/>
       <c r="Q25" s="4" t="n"/>
     </row>
     <row r="26">
@@ -2512,11 +2404,7 @@
       <c r="O26" s="4" t="n">
         <v>3365</v>
       </c>
-      <c r="P26" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P26" s="4" t="n"/>
       <c r="Q26" s="4" t="n"/>
     </row>
     <row r="27">
@@ -2591,11 +2479,7 @@
       <c r="O27" s="4" t="n">
         <v>3365</v>
       </c>
-      <c r="P27" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P27" s="4" t="n"/>
       <c r="Q27" s="4" t="n"/>
     </row>
     <row r="28">
@@ -2668,11 +2552,7 @@
         </is>
       </c>
       <c r="O28" s="4" t="inlineStr"/>
-      <c r="P28" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P28" s="4" t="n"/>
       <c r="Q28" s="4" t="n"/>
     </row>
     <row r="29">
@@ -2745,11 +2625,7 @@
         </is>
       </c>
       <c r="O29" s="4" t="inlineStr"/>
-      <c r="P29" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P29" s="4" t="n"/>
       <c r="Q29" s="4" t="n"/>
     </row>
     <row r="30">
@@ -2824,11 +2700,7 @@
       <c r="O30" s="4" t="n">
         <v>369</v>
       </c>
-      <c r="P30" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P30" s="4" t="n"/>
       <c r="Q30" s="4" t="n"/>
     </row>
     <row r="31">
@@ -2903,11 +2775,7 @@
       <c r="O31" s="4" t="n">
         <v>369</v>
       </c>
-      <c r="P31" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P31" s="4" t="n"/>
       <c r="Q31" s="4" t="n"/>
     </row>
     <row r="32">
@@ -2982,11 +2850,7 @@
       <c r="O32" s="4" t="n">
         <v>369</v>
       </c>
-      <c r="P32" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P32" s="4" t="n"/>
       <c r="Q32" s="4" t="n"/>
     </row>
     <row r="33">
@@ -3061,11 +2925,7 @@
       <c r="O33" s="4" t="n">
         <v>58</v>
       </c>
-      <c r="P33" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P33" s="4" t="n"/>
       <c r="Q33" s="4" t="n"/>
     </row>
     <row r="34">
@@ -3140,11 +3000,7 @@
       <c r="O34" s="4" t="n">
         <v>119</v>
       </c>
-      <c r="P34" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P34" s="4" t="n"/>
       <c r="Q34" s="4" t="n"/>
     </row>
     <row r="35">
@@ -3219,11 +3075,7 @@
       <c r="O35" s="4" t="n">
         <v>371.5</v>
       </c>
-      <c r="P35" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P35" s="4" t="n"/>
       <c r="Q35" s="4" t="n"/>
     </row>
     <row r="36">
@@ -3298,11 +3150,7 @@
       <c r="O36" s="4" t="n">
         <v>2105.5</v>
       </c>
-      <c r="P36" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P36" s="4" t="n"/>
       <c r="Q36" s="4" t="n"/>
     </row>
     <row r="37">
@@ -3377,11 +3225,7 @@
       <c r="O37" s="4" t="n">
         <v>5000.5</v>
       </c>
-      <c r="P37" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P37" s="4" t="n"/>
       <c r="Q37" s="4" t="n"/>
     </row>
     <row r="38">
@@ -3456,11 +3300,7 @@
       <c r="O38" s="4" t="n">
         <v>26001</v>
       </c>
-      <c r="P38" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P38" s="4" t="n"/>
       <c r="Q38" s="4" t="n"/>
     </row>
     <row r="39">
@@ -3535,11 +3375,7 @@
       <c r="O39" s="4" t="n">
         <v>75001</v>
       </c>
-      <c r="P39" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P39" s="4" t="n"/>
       <c r="Q39" s="4" t="n"/>
     </row>
     <row r="40">
@@ -3614,11 +3450,7 @@
       <c r="O40" s="4" t="n">
         <v>2500.5</v>
       </c>
-      <c r="P40" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P40" s="4" t="n"/>
       <c r="Q40" s="4" t="n"/>
     </row>
     <row r="41">
@@ -3693,11 +3525,7 @@
       <c r="O41" s="4" t="n">
         <v>4000.5</v>
       </c>
-      <c r="P41" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P41" s="4" t="n"/>
       <c r="Q41" s="4" t="n"/>
     </row>
     <row r="42">
@@ -3772,11 +3600,7 @@
       <c r="O42" s="4" t="n">
         <v>15001</v>
       </c>
-      <c r="P42" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P42" s="4" t="n"/>
       <c r="Q42" s="4" t="n"/>
     </row>
     <row r="43">
@@ -3849,11 +3673,7 @@
         </is>
       </c>
       <c r="O43" s="4" t="inlineStr"/>
-      <c r="P43" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P43" s="4" t="n"/>
       <c r="Q43" s="4" t="n"/>
     </row>
     <row r="44">
@@ -3926,11 +3746,7 @@
         </is>
       </c>
       <c r="O44" s="4" t="inlineStr"/>
-      <c r="P44" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P44" s="4" t="n"/>
       <c r="Q44" s="4" t="n"/>
     </row>
     <row r="45">
@@ -4003,11 +3819,7 @@
         </is>
       </c>
       <c r="O45" s="4" t="inlineStr"/>
-      <c r="P45" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P45" s="4" t="n"/>
       <c r="Q45" s="4" t="n"/>
     </row>
     <row r="46">
@@ -4080,11 +3892,7 @@
         </is>
       </c>
       <c r="O46" s="4" t="inlineStr"/>
-      <c r="P46" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P46" s="4" t="n"/>
       <c r="Q46" s="4" t="n"/>
     </row>
     <row r="47">
@@ -4157,11 +3965,7 @@
         </is>
       </c>
       <c r="O47" s="4" t="inlineStr"/>
-      <c r="P47" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P47" s="4" t="n"/>
       <c r="Q47" s="4" t="n"/>
     </row>
     <row r="48">
@@ -4234,11 +4038,7 @@
         </is>
       </c>
       <c r="O48" s="4" t="inlineStr"/>
-      <c r="P48" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P48" s="4" t="n"/>
       <c r="Q48" s="4" t="n"/>
     </row>
     <row r="49">
@@ -4311,11 +4111,7 @@
         </is>
       </c>
       <c r="O49" s="4" t="inlineStr"/>
-      <c r="P49" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P49" s="4" t="n"/>
       <c r="Q49" s="4" t="n"/>
     </row>
     <row r="50">
@@ -4388,11 +4184,7 @@
         </is>
       </c>
       <c r="O50" s="4" t="inlineStr"/>
-      <c r="P50" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P50" s="4" t="n"/>
       <c r="Q50" s="4" t="n"/>
     </row>
     <row r="51">
@@ -4465,11 +4257,7 @@
         </is>
       </c>
       <c r="O51" s="4" t="inlineStr"/>
-      <c r="P51" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P51" s="4" t="n"/>
       <c r="Q51" s="4" t="n"/>
     </row>
     <row r="52">
@@ -4542,11 +4330,7 @@
         </is>
       </c>
       <c r="O52" s="4" t="inlineStr"/>
-      <c r="P52" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P52" s="4" t="n"/>
       <c r="Q52" s="4" t="n"/>
     </row>
     <row r="53">
@@ -4619,11 +4403,7 @@
         </is>
       </c>
       <c r="O53" s="4" t="inlineStr"/>
-      <c r="P53" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P53" s="4" t="n"/>
       <c r="Q53" s="4" t="n"/>
     </row>
     <row r="54">
@@ -4696,11 +4476,7 @@
         </is>
       </c>
       <c r="O54" s="4" t="inlineStr"/>
-      <c r="P54" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P54" s="4" t="n"/>
       <c r="Q54" s="4" t="n"/>
     </row>
     <row r="55">
@@ -4773,11 +4549,7 @@
         </is>
       </c>
       <c r="O55" s="4" t="inlineStr"/>
-      <c r="P55" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P55" s="4" t="n"/>
       <c r="Q55" s="4" t="n"/>
     </row>
     <row r="56">
@@ -4850,11 +4622,7 @@
         </is>
       </c>
       <c r="O56" s="4" t="inlineStr"/>
-      <c r="P56" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P56" s="4" t="n"/>
       <c r="Q56" s="4" t="n"/>
     </row>
     <row r="57">
@@ -4927,11 +4695,7 @@
         </is>
       </c>
       <c r="O57" s="4" t="inlineStr"/>
-      <c r="P57" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P57" s="4" t="n"/>
       <c r="Q57" s="4" t="n"/>
     </row>
     <row r="58">
@@ -5004,11 +4768,7 @@
         </is>
       </c>
       <c r="O58" s="4" t="inlineStr"/>
-      <c r="P58" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P58" s="4" t="n"/>
       <c r="Q58" s="4" t="n"/>
     </row>
     <row r="59">
@@ -5077,11 +4837,7 @@
         </is>
       </c>
       <c r="O59" s="4" t="inlineStr"/>
-      <c r="P59" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P59" s="4" t="n"/>
       <c r="Q59" s="4" t="n"/>
     </row>
     <row r="60">
@@ -5150,11 +4906,7 @@
         </is>
       </c>
       <c r="O60" s="4" t="inlineStr"/>
-      <c r="P60" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P60" s="4" t="n"/>
       <c r="Q60" s="4" t="n"/>
     </row>
     <row r="61">
@@ -5223,11 +4975,7 @@
         </is>
       </c>
       <c r="O61" s="4" t="inlineStr"/>
-      <c r="P61" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P61" s="4" t="n"/>
       <c r="Q61" s="4" t="n"/>
     </row>
     <row r="62">
@@ -5296,11 +5044,7 @@
         </is>
       </c>
       <c r="O62" s="4" t="inlineStr"/>
-      <c r="P62" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P62" s="4" t="n"/>
       <c r="Q62" s="4" t="n"/>
     </row>
     <row r="63">
@@ -5369,11 +5113,7 @@
       </c>
       <c r="N63" s="4" t="inlineStr"/>
       <c r="O63" s="4" t="inlineStr"/>
-      <c r="P63" s="4" t="inlineStr">
-        <is>
-          <t>success</t>
-        </is>
-      </c>
+      <c r="P63" s="4" t="n"/>
       <c r="Q63" s="4" t="n"/>
     </row>
   </sheetData>
